--- a/data/Population.xlsx
+++ b/data/Population.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\romainb\Documents\6. Papers\6. Dynamic MFA Al in Passenger cars\Dynamic-MFA-Al-in-Passenger-Cars\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3368D4-61BC-416E-A209-476C0C71028D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAC1A47-32AF-41C4-B4E8-2DDEB92FF79E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5670" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{FF4AD603-0FFA-40CB-9C5B-85FE0072E979}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{FF4AD603-0FFA-40CB-9C5B-85FE0072E979}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -7758,8 +7758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E799A2C7-724C-4BD5-AAAB-0AE4762BED26}">
   <dimension ref="A1:G454"/>
   <sheetViews>
-    <sheetView topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="C263" sqref="C263:H263"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20460,7 +20460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F6E839-A36F-40D7-ADB8-39DD3AE48FEF}">
   <dimension ref="A1:Z152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+    <sheetView topLeftCell="G7" workbookViewId="0">
       <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
